--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/67/word_level_predictions_67.xlsx
@@ -1178,156 +1178,156 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>13</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1750,364 +1750,364 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>Abnormal</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="D26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" t="inlineStr">
+      <c r="G26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>compass</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="D27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>function</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K28" t="b">
-        <v>1</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3258,312 +3258,312 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>Downward</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="inlineStr">
+      <c r="D55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="D56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>Sensing</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7990,156 +7990,156 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" t="n">
         <v>13</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" t="n">
         <v>8</v>
       </c>
-      <c r="E146" s="2" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" t="n">
         <v>13</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" t="n">
         <v>9</v>
       </c>
-      <c r="E147" s="2" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F147" s="2" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" t="n">
         <v>13</v>
       </c>
-      <c r="B148" s="2" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C148" s="2" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D148" s="2" t="n">
+      <c r="D148" t="n">
         <v>10</v>
       </c>
-      <c r="E148" s="2" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F148" s="2" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G148" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" s="2" t="inlineStr">
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L148" s="2" t="inlineStr">
+      <c r="I148" t="b">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9446,678 +9446,678 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="inlineStr">
+      <c r="D174" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="F174" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" t="inlineStr">
+      <c r="D175" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
+      <c r="A177" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B177" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C177" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" t="n">
+      <c r="D177" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
+      <c r="A178" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" t="n">
+      <c r="D178" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
+      <c r="A179" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="B179" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" t="n">
+      <c r="D179" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G198" s="2" t="b">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="F199" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G199" s="2" t="b">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="F200" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G200" s="2" t="b">
@@ -10845,7 +10845,7 @@
       </c>
       <c r="L200" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="F202" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G202" s="2" t="b">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="L202" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="F204" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G204" s="2" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="F205" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G205" s="2" t="b">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G206" s="2" t="b">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11318,156 +11318,156 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="inlineStr">
+      <c r="D210" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="D211" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
         </is>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -12202,730 +12202,730 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>20</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" s="2" t="inlineStr">
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F227" s="2" t="inlineStr">
+      <c r="F227" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>20</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E228" s="2" t="inlineStr">
+      <c r="D228" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F228" s="2" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="n">
+      <c r="A229" t="n">
         <v>20</v>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D229" s="2" t="n">
+      <c r="D229" t="n">
         <v>2</v>
       </c>
-      <c r="E229" s="2" t="inlineStr">
+      <c r="E229" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F229" s="2" t="inlineStr">
+      <c r="F229" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G229" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" s="2" t="inlineStr">
+      <c r="G229" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2" t="inlineStr">
+      <c r="I229" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K229" t="b">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>20</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>at</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>3</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F230" s="2" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>20</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
+      <c r="D231" t="n">
         <v>4</v>
       </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="E231" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>20</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>5</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F232" s="2" t="inlineStr">
+      <c r="F232" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>20</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>When</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>6</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>20</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>exceeding</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>7</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>20</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>nnn,</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>8</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
+      <c r="I238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J238" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K238" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L238" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F239" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
+      <c r="G239" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
+      <c r="I239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J239" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K239" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L239" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" t="b">
-        <v>1</v>
-      </c>
-      <c r="J238" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K238" t="b">
-        <v>1</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" t="b">
-        <v>1</v>
-      </c>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K239" t="b">
-        <v>1</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13606,312 +13606,312 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D254" t="n">
-        <v>0</v>
-      </c>
-      <c r="E254" t="inlineStr">
+      <c r="D254" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
+      <c r="F254" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
+      <c r="A255" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="B255" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+      <c r="C255" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D255" t="n">
-        <v>1</v>
-      </c>
-      <c r="E255" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I255" t="b">
-        <v>1</v>
-      </c>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K255" t="b">
-        <v>1</v>
-      </c>
-      <c r="L255" t="inlineStr">
+      <c r="D255" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F255" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
+      <c r="A256" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="B256" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C256" s="2" t="inlineStr">
         <is>
           <t>Sensing</t>
         </is>
       </c>
-      <c r="D256" t="n">
+      <c r="D256" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I256" t="b">
-        <v>1</v>
-      </c>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K256" t="b">
-        <v>1</v>
-      </c>
-      <c r="L256" t="inlineStr">
+      <c r="E256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F256" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
+      <c r="A257" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="B257" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C257" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D257" t="n">
+      <c r="D257" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E257" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I257" t="b">
-        <v>1</v>
-      </c>
-      <c r="J257" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K257" t="b">
-        <v>1</v>
-      </c>
-      <c r="L257" t="inlineStr">
+      <c r="E257" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F257" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G257" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J257" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K257" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
+      <c r="A258" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="B258" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+      <c r="C258" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D258" t="n">
+      <c r="D258" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E258" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I258" t="b">
-        <v>1</v>
-      </c>
-      <c r="J258" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K258" t="b">
-        <v>1</v>
-      </c>
-      <c r="L258" t="inlineStr">
+      <c r="E258" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F258" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G258" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J258" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K258" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L258" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
+      <c r="A259" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="B259" s="2" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+      <c r="C259" s="2" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="D259" t="n">
+      <c r="D259" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E259" t="inlineStr">
+      <c r="E259" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G259" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I259" t="b">
-        <v>1</v>
-      </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K259" t="b">
-        <v>1</v>
-      </c>
-      <c r="L259" t="inlineStr">
+      <c r="F259" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G259" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J259" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K259" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L259" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G260" t="b">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/67/word_level_predictions_67.xlsx
@@ -1178,156 +1178,156 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>14</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1750,364 +1750,364 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" t="n">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Abnormal</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>compass</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K27" t="b">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" t="n">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>function</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" t="n">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F28" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K28" t="b">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" t="n">
         <v>3</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" t="n">
         <v>5</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" t="n">
         <v>2</v>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" t="n">
         <v>6</v>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G33" t="b">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3258,312 +3258,312 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>5</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Downward</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>5</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" t="n">
         <v>5</v>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Sensing</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" t="n">
         <v>2</v>
       </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" t="n">
         <v>5</v>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" t="n">
         <v>3</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" t="n">
         <v>5</v>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" t="n">
         <v>4</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" t="n">
         <v>5</v>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" t="n">
         <v>5</v>
       </c>
-      <c r="E60" s="2" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G61" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G128" s="2" t="b">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G130" s="2" t="b">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -7990,156 +7990,156 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B148" s="2" t="inlineStr">
         <is>
           <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>9</v>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>caution</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>13</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>caution</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>10</v>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G148" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I148" t="b">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K148" t="b">
-        <v>1</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="I148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9446,678 +9446,678 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Motor</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Obstructed</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>2</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>16</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
+      <c r="D177" t="n">
         <v>3</v>
       </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>16</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>4</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>16</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>5</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F179" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>16</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>6</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>16</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>7</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>16</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>8</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>16</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>9</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>16</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>10</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>16</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>11</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>16</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>12</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G198" s="2" t="b">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="F199" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G199" s="2" t="b">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="L199" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="F200" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G200" s="2" t="b">
@@ -10845,7 +10845,7 @@
       </c>
       <c r="L200" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="F202" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G202" s="2" t="b">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="L202" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="F204" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G204" s="2" t="b">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="L204" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11081,7 +11081,7 @@
       </c>
       <c r="F205" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G205" s="2" t="b">
@@ -11105,7 +11105,7 @@
       </c>
       <c r="L205" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="F206" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G206" s="2" t="b">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="L206" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11318,156 +11318,156 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>19</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>GEO</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>19</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>19</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>Info:</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>2</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_E</t>
         </is>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12202,730 +12202,730 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D227" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" t="inlineStr">
+      <c r="D227" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="F227" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>ActiveTrack</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>ActiveTrack</t>
-        </is>
-      </c>
-      <c r="D228" t="n">
-        <v>1</v>
-      </c>
-      <c r="E228" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>available</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E229" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="F229" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
+      <c r="G229" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
+      <c r="I229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>at</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F230" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F231" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>speed</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E232" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F232" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B233" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C233" s="2" t="inlineStr">
+        <is>
+          <t>When</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E233" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>exceeding</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>nnn,</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>20</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Obstacle</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>9</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>20</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>10</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>20</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>11</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G238" t="b">
+        <v>1</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K238" t="b">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>20</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>12</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G239" t="b">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K239" t="b">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>20</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
         <is>
           <t>available</t>
         </is>
       </c>
-      <c r="D229" t="n">
-        <v>2</v>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G229" t="b">
-        <v>1</v>
-      </c>
-      <c r="H229" t="inlineStr">
+      <c r="D240" t="n">
+        <v>13</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="I229" t="b">
-        <v>1</v>
-      </c>
-      <c r="J229" t="inlineStr">
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
       </c>
-      <c r="K229" t="b">
-        <v>1</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>20</v>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>at</t>
-        </is>
-      </c>
-      <c r="D230" t="n">
-        <v>3</v>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>20</v>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D231" t="n">
-        <v>4</v>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>20</v>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>speed</t>
-        </is>
-      </c>
-      <c r="D232" t="n">
-        <v>5</v>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>20</v>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>When</t>
-        </is>
-      </c>
-      <c r="D233" t="n">
-        <v>6</v>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>20</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>exceeding</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>7</v>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>20</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>nnn,</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>8</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>Obstacle</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E236" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F236" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F237" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F238" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G238" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H238" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K238" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L238" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B239" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C239" s="2" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D239" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F239" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G239" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H239" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K239" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L239" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>available</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E240" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13606,312 +13606,312 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>22</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E254" s="2" t="inlineStr">
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F254" s="2" t="inlineStr">
+      <c r="F254" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="2" t="n">
+      <c r="A255" t="n">
         <v>22</v>
       </c>
-      <c r="B255" s="2" t="inlineStr">
+      <c r="B255" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C255" s="2" t="inlineStr">
+      <c r="C255" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D255" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F255" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G255" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K255" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2" t="inlineStr">
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G255" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K255" t="b">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="2" t="n">
+      <c r="A256" t="n">
         <v>22</v>
       </c>
-      <c r="B256" s="2" t="inlineStr">
+      <c r="B256" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C256" s="2" t="inlineStr">
+      <c r="C256" t="inlineStr">
         <is>
           <t>Sensing</t>
         </is>
       </c>
-      <c r="D256" s="2" t="n">
+      <c r="D256" t="n">
         <v>2</v>
       </c>
-      <c r="E256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F256" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G256" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H256" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K256" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2" t="inlineStr">
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G256" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K256" t="b">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="2" t="n">
+      <c r="A257" t="n">
         <v>22</v>
       </c>
-      <c r="B257" s="2" t="inlineStr">
+      <c r="B257" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C257" s="2" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D257" s="2" t="n">
+      <c r="D257" t="n">
         <v>3</v>
       </c>
-      <c r="E257" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F257" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G257" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K257" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="2" t="inlineStr">
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G257" t="b">
+        <v>1</v>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K257" t="b">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="2" t="n">
+      <c r="A258" t="n">
         <v>22</v>
       </c>
-      <c r="B258" s="2" t="inlineStr">
+      <c r="B258" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C258" s="2" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D258" s="2" t="n">
+      <c r="D258" t="n">
         <v>4</v>
       </c>
-      <c r="E258" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F258" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G258" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K258" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L258" s="2" t="inlineStr">
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G258" t="b">
+        <v>1</v>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I258" t="b">
+        <v>1</v>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K258" t="b">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="2" t="n">
+      <c r="A259" t="n">
         <v>22</v>
       </c>
-      <c r="B259" s="2" t="inlineStr">
+      <c r="B259" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C259" s="2" t="inlineStr">
+      <c r="C259" t="inlineStr">
         <is>
           <t>functioning</t>
         </is>
       </c>
-      <c r="D259" s="2" t="n">
+      <c r="D259" t="n">
         <v>5</v>
       </c>
-      <c r="E259" s="2" t="inlineStr">
+      <c r="E259" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F259" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G259" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H259" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K259" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L259" s="2" t="inlineStr">
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G259" t="b">
+        <v>1</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I259" t="b">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K259" t="b">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G260" t="b">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
